--- a/Data/TS_trend.xlsx
+++ b/Data/TS_trend.xlsx
@@ -1,35 +1,332 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linda\Documents\UNI\GitHub\ADS_year3_project_8\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE22390E-F218-4BBA-874B-E0D99F06EFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45687881-BF6E-487A-8835-DF985ADA3973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>main</t>
+  </si>
+  <si>
+    <t>1998 - Q1</t>
+  </si>
+  <si>
+    <t>1998 - Q2</t>
+  </si>
+  <si>
+    <t>1998 - Q3</t>
+  </si>
+  <si>
+    <t>1998 - Q4</t>
+  </si>
+  <si>
+    <t>1999 - Q1</t>
+  </si>
+  <si>
+    <t>1999 - Q2</t>
+  </si>
+  <si>
+    <t>1999 - Q3</t>
+  </si>
+  <si>
+    <t>1999 - Q4</t>
+  </si>
+  <si>
+    <t>2000 - Q1</t>
+  </si>
+  <si>
+    <t>2000 - Q2</t>
+  </si>
+  <si>
+    <t>2000 - Q3</t>
+  </si>
+  <si>
+    <t>2000 - Q4</t>
+  </si>
+  <si>
+    <t>2001 - Q1</t>
+  </si>
+  <si>
+    <t>2001 - Q2</t>
+  </si>
+  <si>
+    <t>2001 - Q3</t>
+  </si>
+  <si>
+    <t>2001 - Q4</t>
+  </si>
+  <si>
+    <t>2002 - Q1</t>
+  </si>
+  <si>
+    <t>2002 - Q2</t>
+  </si>
+  <si>
+    <t>2002 - Q3</t>
+  </si>
+  <si>
+    <t>2002 - Q4</t>
+  </si>
+  <si>
+    <t>2003 - Q1</t>
+  </si>
+  <si>
+    <t>2003 - Q2</t>
+  </si>
+  <si>
+    <t>2003 - Q3</t>
+  </si>
+  <si>
+    <t>2003 - Q4</t>
+  </si>
+  <si>
+    <t>2004 - Q1</t>
+  </si>
+  <si>
+    <t>2004 - Q2</t>
+  </si>
+  <si>
+    <t>2004 - Q3</t>
+  </si>
+  <si>
+    <t>2004 - Q4</t>
+  </si>
+  <si>
+    <t>2005 - Q1</t>
+  </si>
+  <si>
+    <t>2005 - Q2</t>
+  </si>
+  <si>
+    <t>2005 - Q3</t>
+  </si>
+  <si>
+    <t>2005 - Q4</t>
+  </si>
+  <si>
+    <t>2006 - Q1</t>
+  </si>
+  <si>
+    <t>2006 - Q2</t>
+  </si>
+  <si>
+    <t>2006 - Q3</t>
+  </si>
+  <si>
+    <t>2006 - Q4</t>
+  </si>
+  <si>
+    <t>2007 - Q1</t>
+  </si>
+  <si>
+    <t>2007 - Q2</t>
+  </si>
+  <si>
+    <t>2007 - Q3</t>
+  </si>
+  <si>
+    <t>2007 - Q4</t>
+  </si>
+  <si>
+    <t>2008 - Q1</t>
+  </si>
+  <si>
+    <t>2008 - Q2</t>
+  </si>
+  <si>
+    <t>2008 - Q3</t>
+  </si>
+  <si>
+    <t>2008 - Q4</t>
+  </si>
+  <si>
+    <t>2009 - Q1</t>
+  </si>
+  <si>
+    <t>2009 - Q2</t>
+  </si>
+  <si>
+    <t>2009 - Q3</t>
+  </si>
+  <si>
+    <t>2009 - Q4</t>
+  </si>
+  <si>
+    <t>2010 - Q1</t>
+  </si>
+  <si>
+    <t>2010 - Q2</t>
+  </si>
+  <si>
+    <t>2010 - Q3</t>
+  </si>
+  <si>
+    <t>2010 - Q4</t>
+  </si>
+  <si>
+    <t>2011 - Q1</t>
+  </si>
+  <si>
+    <t>2011 - Q2</t>
+  </si>
+  <si>
+    <t>2011 - Q3</t>
+  </si>
+  <si>
+    <t>2011 - Q4</t>
+  </si>
+  <si>
+    <t>2012 - Q1</t>
+  </si>
+  <si>
+    <t>2012 - Q2</t>
+  </si>
+  <si>
+    <t>2012 - Q3</t>
+  </si>
+  <si>
+    <t>2012 - Q4</t>
+  </si>
+  <si>
+    <t>2013 - Q1</t>
+  </si>
+  <si>
+    <t>2013 - Q2</t>
+  </si>
+  <si>
+    <t>2013 - Q3</t>
+  </si>
+  <si>
+    <t>2013 - Q4</t>
+  </si>
+  <si>
+    <t>2014 - Q1</t>
+  </si>
+  <si>
+    <t>2014 - Q2</t>
+  </si>
+  <si>
+    <t>2014 - Q3</t>
+  </si>
+  <si>
+    <t>2014 - Q4</t>
+  </si>
+  <si>
+    <t>2015 - Q1</t>
+  </si>
+  <si>
+    <t>2015 - Q2</t>
+  </si>
+  <si>
+    <t>2015 - Q3</t>
+  </si>
+  <si>
+    <t>2015 - Q4</t>
+  </si>
+  <si>
+    <t>2016 - Q1</t>
+  </si>
+  <si>
+    <t>2016 - Q2</t>
+  </si>
+  <si>
+    <t>2016 - Q3</t>
+  </si>
+  <si>
+    <t>2016 - Q4</t>
+  </si>
+  <si>
+    <t>2017 - Q1</t>
+  </si>
+  <si>
+    <t>2017 - Q2</t>
+  </si>
+  <si>
+    <t>2017 - Q3</t>
+  </si>
+  <si>
+    <t>2017 - Q4</t>
+  </si>
+  <si>
+    <t>2018 - Q1</t>
+  </si>
+  <si>
+    <t>2018 - Q2</t>
+  </si>
+  <si>
+    <t>2018 - Q3</t>
+  </si>
+  <si>
+    <t>2018 - Q4</t>
+  </si>
+  <si>
+    <t>2019 - Q1</t>
+  </si>
+  <si>
+    <t>2019 - Q2</t>
+  </si>
+  <si>
+    <t>2019 - Q3</t>
+  </si>
+  <si>
+    <t>2019 - Q4</t>
+  </si>
+  <si>
+    <t>2020 - Q1</t>
+  </si>
+  <si>
+    <t>2020 - Q2</t>
+  </si>
+  <si>
+    <t>2020 - Q3</t>
+  </si>
+  <si>
+    <t>2020 - Q4</t>
+  </si>
+  <si>
+    <t>2021 - Q1</t>
+  </si>
+  <si>
+    <t>2021 - Q2</t>
+  </si>
+  <si>
+    <t>2021 - Q3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,13 +342,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -78,17 +387,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 8" xfId="1" xr:uid="{EC5FAAAC-F0A8-4C95-8FE6-BDD93DD306F2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -424,768 +738,780 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B95"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>-3720</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>4080</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>-3910</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>3030</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>-2630</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>3410</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>-5830</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>4990</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>-2160</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>3750</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>-3800</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>4600</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>-2510</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>4790</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>-6490</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>3180</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>2240</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>5820</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>-4420</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>6150</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
         <v>-1570</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>7640</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
         <v>-8160</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
         <v>3510</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
         <v>-3910</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>-40</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
         <v>-6970</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
         <v>-3660</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
         <v>820</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
         <v>-5030</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
         <v>-7060</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
         <v>-2720</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
         <v>-4790</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
         <v>890</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
         <v>-4850</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
         <v>-440</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
         <v>-3260</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
         <v>1160</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
         <v>-4050</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
         <v>-700</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
         <v>-10</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
         <v>-400</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
         <v>-3510</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
         <v>-640</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
         <v>-2330</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
         <v>-610</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
         <v>-1750</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
         <v>1440</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
         <v>4040</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
         <v>-830</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
         <v>340</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
         <v>-420</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
         <v>1410</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
         <v>410</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
         <v>-1100</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
         <v>2360</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
         <v>-70</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
         <v>-550</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
         <v>-290</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="B63">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
         <v>-130</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="B64">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
         <v>-30</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="B65">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
         <v>-870</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>65</v>
-      </c>
-      <c r="B66">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
         <v>350</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>66</v>
-      </c>
-      <c r="B67">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
         <v>960</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>67</v>
-      </c>
-      <c r="B68">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>68</v>
-      </c>
-      <c r="B69">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
         <v>-1000</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>69</v>
-      </c>
-      <c r="B70">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
         <v>-200</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>70</v>
-      </c>
-      <c r="B71">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
         <v>1520</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>71</v>
-      </c>
-      <c r="B72">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
         <v>320</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>72</v>
-      </c>
-      <c r="B73">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
         <v>-190</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>73</v>
-      </c>
-      <c r="B74">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
         <v>670</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>74</v>
-      </c>
-      <c r="B75">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
         <v>-370</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>75</v>
-      </c>
-      <c r="B76">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
         <v>-1430</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>76</v>
-      </c>
-      <c r="B77">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
         <v>530</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>77</v>
-      </c>
-      <c r="B78">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
         <v>-1010</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>78</v>
-      </c>
-      <c r="B79">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
         <v>1880</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>79</v>
-      </c>
-      <c r="B80">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
         <v>-2470</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>80</v>
-      </c>
-      <c r="B81">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
         <v>-1140</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>81</v>
-      </c>
-      <c r="B82">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
         <v>-12830</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>82</v>
-      </c>
-      <c r="B83">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
         <v>-430</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>83</v>
-      </c>
-      <c r="B84">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
         <v>700</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>84</v>
-      </c>
-      <c r="B85">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
         <v>400</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>85</v>
-      </c>
-      <c r="B86">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
         <v>1680</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>86</v>
-      </c>
-      <c r="B87">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88">
         <v>620</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>87</v>
-      </c>
-      <c r="B88">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
         <v>-170</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>88</v>
-      </c>
-      <c r="B89">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
         <v>190</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>89</v>
-      </c>
-      <c r="B90">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
         <v>860</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>90</v>
-      </c>
-      <c r="B91">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
         <v>-1570</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>91</v>
-      </c>
-      <c r="B92">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
         <v>590</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>92</v>
-      </c>
-      <c r="B93">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
         <v>-470</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>93</v>
-      </c>
-      <c r="B94">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
         <v>240</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>94</v>
-      </c>
-      <c r="B95">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96">
         <v>-550</v>
       </c>
     </row>
